--- a/ATU Reports/Results/Run_4/(ATU Reports) Run_4.xlsx
+++ b/ATU Reports/Results/Run_4/(ATU Reports) Run_4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Total Test Cases</t>
   </si>
@@ -52,16 +52,16 @@
     <t>ATU_TestCase_ID</t>
   </si>
   <si>
-    <t>evr.test.Regression</t>
-  </si>
-  <si>
-    <t>T1534962</t>
+    <t>myrp.test.Regression</t>
+  </si>
+  <si>
+    <t>RT_07810</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>42 Sec</t>
+    <t>4 Sec</t>
   </si>
   <si>
     <t>Passed</t>
@@ -88,39 +88,24 @@
     <t>Screenshot</t>
   </si>
   <si>
-    <t>Create an order and successfully view the order by: 1. From ValEx, view the order as a valuer widely used 2. Input an order number on the Debug Page less priority</t>
-  </si>
-  <si>
-    <t>vxj-000000593798</t>
-  </si>
-  <si>
-    <t>Successfully view the Dekstop EVR - Overview tab after the order has been accepted on ValEx.</t>
-  </si>
-  <si>
-    <t>Successfully view the Desktop EVR - Overview tab after the order has been accepted on ValEx.</t>
-  </si>
-  <si>
-    <t>1411449129 Sec</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>Given I created an order
-And I access EVR
-And I navigate to Sales Evidence page</t>
-  </si>
-  <si>
-    <t>If Property Type is House or Unit, it should display a Valsafe Default Result(without clicking on Search RP button) and ready to select.</t>
-  </si>
-  <si>
-    <t>Theres is a display Valsafe Default Result(without clicking on Search RP button) and ready to select.</t>
-  </si>
-  <si>
-    <t>36 Sec</t>
-  </si>
-  <si>
-    <t>49</t>
+    <t xml:space="preserve">Scenario: Verify that all landing pages has loaded correctly and all expected elements on the page are in placed
+</t>
+  </si>
+  <si>
+    <t>LANDING PAGE</t>
+  </si>
+  <si>
+    <t>Given user is in page {Page Name} and url is {URL}
+Then {Page Name} should load with complete elements</t>
+  </si>
+  <si>
+    <t>FAILED: Not Succesfully Visted All the Pages with Complete Element</t>
+  </si>
+  <si>
+    <t>1413769679 Sec</t>
+  </si>
+  <si>
+    <t>40</t>
   </si>
   <si>
     <t>Go To TestSuite Sheet</t>
@@ -735,51 +720,24 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" t="s" s="35">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="35">
-        <v>35</v>
-      </c>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A3:H3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H3" r:id="rId2"/>
-    <hyperlink location="'TestSuite'!A1" ref="A4"/>
+    <hyperlink location="'TestSuite'!A1" ref="A3"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
